--- a/xl_files/batman_begin.xlsx
+++ b/xl_files/batman_begin.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -680,7 +680,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>COLO</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4324,7 +4324,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>EARL</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>EARL</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>EARL</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -6104,7 +6104,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -6229,7 +6229,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -7004,7 +7004,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -7024,12 +7024,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>He learned things, and he will testify in exchange for early parole.</t>
+          <t>He learned things, and he will testify in exchange for EARLEy parole.</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -7274,12 +7274,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>...we strongly endorse his petition for early release.</t>
+          <t>...we strongly endorse his petition for EARLEy release.</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>LOYER</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -7659,7 +7659,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -8126,7 +8126,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -8226,7 +8226,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -9960,7 +9960,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -9985,7 +9985,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E398" t="n">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -10210,7 +10210,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E402" t="n">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E410" t="n">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E411" t="n">
@@ -10502,7 +10502,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E418" t="n">
@@ -10707,7 +10707,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -10882,7 +10882,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -11282,7 +11282,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -11407,7 +11407,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -11686,12 +11686,12 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>In the depression, your father nearly bankrupted Wayne Enterprises...</t>
+          <t>In the depression, your father nEARLEy bankrupted Wayne Enterprises...</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -11791,7 +11791,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -11991,7 +11991,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -12261,12 +12261,12 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Actually, it was Mr. Earle. He's taking the company public.</t>
+          <t>Actually, it was Mr. EARLE. He's taking the company public.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -12416,7 +12416,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -12466,7 +12466,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -12616,7 +12616,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -12691,7 +12691,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -12716,7 +12716,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -12816,7 +12816,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -13117,7 +13117,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -13492,7 +13492,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good morning, Mr. Earle's office.</t>
+          <t xml:space="preserve"> Good morning, Mr. EARLE's office.</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Good morning. I'm here to see Mr. Earle.</t>
+          <t xml:space="preserve"> Good morning. I'm here to see Mr. EARLE.</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -13692,7 +13692,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -13787,7 +13787,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>It's Wayne Enterprises, Mr. Earle. I'm sure they'll call back.</t>
+          <t>It's Wayne Enterprises, Mr. EARLE. I'm sure they'll call back.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -13867,7 +13867,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E553" t="n">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E554" t="n">
@@ -13992,7 +13992,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E555" t="n">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E560" t="n">
@@ -14167,7 +14167,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E562" t="n">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E563" t="n">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E564" t="n">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E565" t="n">
@@ -14267,7 +14267,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E566" t="n">
@@ -14292,7 +14292,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E567" t="n">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E568" t="n">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E570" t="n">
@@ -14392,7 +14392,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>BRUCE:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E571" t="n">
@@ -14412,12 +14412,12 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Earle told me exactly what it was when he sent me down here.</t>
+          <t>EARLE told me exactly what it was when he sent me down here.</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E572" t="n">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E573" t="n">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E574" t="n">
@@ -14492,7 +14492,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E575" t="n">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E578" t="n">
@@ -14592,7 +14592,7 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E579" t="n">
@@ -14617,7 +14617,7 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E580" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E581" t="n">
@@ -14667,7 +14667,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E582" t="n">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E583" t="n">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E584" t="n">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E585" t="n">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Of course, Earle let it go to rot. Here we are.</t>
+          <t>Of course, EARLE let it go to rot. Here we are.</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E586" t="n">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E587" t="n">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E588" t="n">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E590" t="n">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E592" t="n">
@@ -14942,7 +14942,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E593" t="n">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E596" t="n">
@@ -15067,7 +15067,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E598" t="n">
@@ -15087,12 +15087,12 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Look, I'd rather Mr. Earle didn't know about me borrowing...</t>
+          <t>Look, I'd rather Mr. EARLE didn't know about me borrowing...</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E599" t="n">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E600" t="n">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E601" t="n">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E602" t="n">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E604" t="n">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E605" t="n">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E606" t="n">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E607" t="n">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E608" t="n">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E609" t="n">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E611" t="n">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E612" t="n">
@@ -15442,7 +15442,7 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E613" t="n">
@@ -15467,7 +15467,7 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E614" t="n">
@@ -15492,7 +15492,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E615" t="n">
@@ -15542,7 +15542,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E617" t="n">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E618" t="n">
@@ -15835,7 +15835,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E630" t="n">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E632" t="n">
@@ -15910,7 +15910,7 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E633" t="n">
@@ -16110,7 +16110,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E641" t="n">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E643" t="n">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E648" t="n">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E650" t="n">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E651" t="n">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E653" t="n">
@@ -16435,7 +16435,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E654" t="n">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E655" t="n">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E656" t="n">
@@ -16510,7 +16510,7 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E657" t="n">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E658" t="n">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E660" t="n">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E663" t="n">
@@ -16685,7 +16685,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E664" t="n">
@@ -16710,7 +16710,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E665" t="n">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E668" t="n">
@@ -16810,7 +16810,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E669" t="n">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E670" t="n">
@@ -16860,7 +16860,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E671" t="n">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E672" t="n">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E673" t="n">
@@ -16935,7 +16935,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E674" t="n">
@@ -16985,7 +16985,7 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E676" t="n">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E677" t="n">
@@ -17035,7 +17035,7 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E678" t="n">
@@ -17410,7 +17410,7 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E693" t="n">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E694" t="n">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E696" t="n">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E697" t="n">
@@ -17585,7 +17585,7 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>FLASS:</t>
+          <t>FLASS</t>
         </is>
       </c>
       <c r="E700" t="n">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E728" t="n">
@@ -18246,7 +18246,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E729" t="n">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E733" t="n">
@@ -18380,7 +18380,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E735" t="n">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E736" t="n">
@@ -18630,7 +18630,7 @@
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E745" t="n">
@@ -18655,7 +18655,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E746" t="n">
@@ -18680,7 +18680,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E747" t="n">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E748" t="n">
@@ -18730,7 +18730,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E749" t="n">
@@ -18755,7 +18755,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E750" t="n">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E753" t="n">
@@ -18855,7 +18855,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>LOEB:</t>
+          <t>LOEB</t>
         </is>
       </c>
       <c r="E754" t="n">
@@ -18880,7 +18880,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E755" t="n">
@@ -18905,7 +18905,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E756" t="n">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E757" t="n">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E760" t="n">
@@ -19030,7 +19030,7 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E761" t="n">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E762" t="n">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E763" t="n">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E764" t="n">
@@ -19180,7 +19180,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E767" t="n">
@@ -19205,7 +19205,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E768" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E769" t="n">
@@ -19280,7 +19280,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E771" t="n">
@@ -19305,7 +19305,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E772" t="n">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E773" t="n">
@@ -19380,7 +19380,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E775" t="n">
@@ -19405,7 +19405,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E776" t="n">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E777" t="n">
@@ -19455,7 +19455,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E778" t="n">
@@ -19780,7 +19780,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E791" t="n">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Well, a guy who dresses up like a bat clearly has issues.</t>
+          <t>Well, a guy who dresses up like a bat clEARLEy has issues.</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E814" t="n">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E816" t="n">
@@ -20430,7 +20430,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E817" t="n">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E819" t="n">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E821" t="n">
@@ -20580,7 +20580,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E823" t="n">
@@ -20605,7 +20605,7 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E824" t="n">
@@ -20855,7 +20855,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E834" t="n">
@@ -20880,7 +20880,7 @@
       </c>
       <c r="D835" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E835" t="n">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E840" t="n">
@@ -21030,7 +21030,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E841" t="n">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E842" t="n">
@@ -21105,7 +21105,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E844" t="n">
@@ -21155,7 +21155,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E846" t="n">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E847" t="n">
@@ -21205,7 +21205,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E848" t="n">
@@ -21230,7 +21230,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E849" t="n">
@@ -21255,7 +21255,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E850" t="n">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E851" t="n">
@@ -21305,7 +21305,7 @@
       </c>
       <c r="D852" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E852" t="n">
@@ -21380,7 +21380,7 @@
       </c>
       <c r="D855" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E855" t="n">
@@ -21572,7 +21572,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E863" t="n">
@@ -21672,7 +21672,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E867" t="n">
@@ -21697,7 +21697,7 @@
       </c>
       <c r="D868" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E868" t="n">
@@ -21722,7 +21722,7 @@
       </c>
       <c r="D869" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E869" t="n">
@@ -21747,7 +21747,7 @@
       </c>
       <c r="D870" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E870" t="n">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E872" t="n">
@@ -21872,7 +21872,7 @@
       </c>
       <c r="D875" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E875" t="n">
@@ -21922,7 +21922,7 @@
       </c>
       <c r="D877" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E877" t="n">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="D878" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E878" t="n">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>FLASS:</t>
+          <t>FLASS</t>
         </is>
       </c>
       <c r="E881" t="n">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E897" t="n">
@@ -22415,7 +22415,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E898" t="n">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E899" t="n">
@@ -22465,7 +22465,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>RACHSL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E900" t="n">
@@ -22490,7 +22490,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>RACHCL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E901" t="n">
@@ -22515,7 +22515,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E902" t="n">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>FINCH:</t>
+          <t>FINCH</t>
         </is>
       </c>
       <c r="E903" t="n">
@@ -22674,7 +22674,7 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E909" t="n">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Better torch the whole place. CRANE:</t>
+          <t xml:space="preserve"> Better torch the whole place. CRANE</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="D912" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E912" t="n">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E913" t="n">
@@ -22816,7 +22816,7 @@
       </c>
       <c r="D915" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E915" t="n">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="D920" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E920" t="n">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>THOMAS:</t>
+          <t>THOMAS</t>
         </is>
       </c>
       <c r="E921" t="n">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E923" t="n">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="D924" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E924" t="n">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="D927" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E927" t="n">
@@ -23133,7 +23133,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E928" t="n">
@@ -23158,7 +23158,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E929" t="n">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E930" t="n">
@@ -23233,7 +23233,7 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E932" t="n">
@@ -23258,7 +23258,7 @@
       </c>
       <c r="D933" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E933" t="n">
@@ -23283,7 +23283,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E934" t="n">
@@ -23358,7 +23358,7 @@
       </c>
       <c r="D937" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E937" t="n">
@@ -23383,7 +23383,7 @@
       </c>
       <c r="D938" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E938" t="n">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E939" t="n">
@@ -23433,7 +23433,7 @@
       </c>
       <c r="D940" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E940" t="n">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E941" t="n">
@@ -23508,7 +23508,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E943" t="n">
@@ -23558,7 +23558,7 @@
       </c>
       <c r="D945" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E945" t="n">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="D947" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E947" t="n">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E948" t="n">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E950" t="n">
@@ -23700,7 +23700,7 @@
       </c>
       <c r="D951" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E951" t="n">
@@ -23725,7 +23725,7 @@
       </c>
       <c r="D952" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E952" t="n">
@@ -23750,7 +23750,7 @@
       </c>
       <c r="D953" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E953" t="n">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E955" t="n">
@@ -23850,7 +23850,7 @@
       </c>
       <c r="D957" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E957" t="n">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E958" t="n">
@@ -23900,7 +23900,7 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E959" t="n">
@@ -23925,7 +23925,7 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E960" t="n">
@@ -23950,7 +23950,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E961" t="n">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="D962" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E962" t="n">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="D964" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E964" t="n">
@@ -24042,7 +24042,7 @@
       </c>
       <c r="D965" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E965" t="n">
@@ -24067,7 +24067,7 @@
       </c>
       <c r="D966" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E966" t="n">
@@ -24092,7 +24092,7 @@
       </c>
       <c r="D967" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E967" t="n">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="D968" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E968" t="n">
@@ -24142,7 +24142,7 @@
       </c>
       <c r="D969" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E969" t="n">
@@ -24167,7 +24167,7 @@
       </c>
       <c r="D970" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E970" t="n">
@@ -24192,7 +24192,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E971" t="n">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="D972" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E972" t="n">
@@ -24242,7 +24242,7 @@
       </c>
       <c r="D973" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E973" t="n">
@@ -24267,7 +24267,7 @@
       </c>
       <c r="D974" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E974" t="n">
@@ -24292,7 +24292,7 @@
       </c>
       <c r="D975" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E975" t="n">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="D976" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E976" t="n">
@@ -24342,7 +24342,7 @@
       </c>
       <c r="D977" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E977" t="n">
@@ -24367,7 +24367,7 @@
       </c>
       <c r="D978" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E978" t="n">
@@ -24392,7 +24392,7 @@
       </c>
       <c r="D979" t="inlineStr">
         <is>
-          <t>FALCONE:</t>
+          <t>FALCONE</t>
         </is>
       </c>
       <c r="E979" t="n">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="D980" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E980" t="n">
@@ -24467,7 +24467,7 @@
       </c>
       <c r="D982" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E982" t="n">
@@ -24492,7 +24492,7 @@
       </c>
       <c r="D983" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E983" t="n">
@@ -24517,7 +24517,7 @@
       </c>
       <c r="D984" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E984" t="n">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E985" t="n">
@@ -24567,7 +24567,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E986" t="n">
@@ -24592,7 +24592,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E987" t="n">
@@ -24642,7 +24642,7 @@
       </c>
       <c r="D989" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E989" t="n">
@@ -24687,12 +24687,12 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>- He's drugged? - Psychopharmacology is my primary field.</t>
+          <t>- He's drugged? - PsychopharmaLOEBgy is my primary field.</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E991" t="n">
@@ -24867,7 +24867,7 @@
       </c>
       <c r="D998" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E998" t="n">
@@ -24892,7 +24892,7 @@
       </c>
       <c r="D999" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E999" t="n">
@@ -24917,7 +24917,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1000" t="n">
@@ -24967,7 +24967,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1002" t="n">
@@ -24992,7 +24992,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>CRANE:</t>
+          <t>CRANE</t>
         </is>
       </c>
       <c r="E1003" t="n">
@@ -25404,7 +25404,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What about her? CRANE:</t>
+          <t xml:space="preserve"> What about her? CRANE</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
@@ -26043,7 +26043,7 @@
       </c>
       <c r="D1046" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1046" t="n">
@@ -26427,7 +26427,7 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E1062" t="n">
@@ -26477,7 +26477,7 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E1064" t="n">
@@ -26572,7 +26572,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Make and color?</t>
+          <t xml:space="preserve"> Make and LOEBr?</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
@@ -27352,7 +27352,7 @@
       </c>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1099" t="n">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1101" t="n">
@@ -27477,7 +27477,7 @@
       </c>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1104" t="n">
@@ -27519,7 +27519,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E1106" t="n">
@@ -27544,7 +27544,7 @@
       </c>
       <c r="D1107" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1107" t="n">
@@ -27569,7 +27569,7 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1108" t="n">
@@ -27790,7 +27790,7 @@
       </c>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1117" t="n">
@@ -27840,7 +27840,7 @@
       </c>
       <c r="D1119" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1119" t="n">
@@ -27865,7 +27865,7 @@
       </c>
       <c r="D1120" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1120" t="n">
@@ -27890,7 +27890,7 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1121" t="n">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1123" t="n">
@@ -27990,7 +27990,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1125" t="n">
@@ -28065,7 +28065,7 @@
       </c>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1128" t="n">
@@ -28140,7 +28140,7 @@
       </c>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1131" t="n">
@@ -28165,7 +28165,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1132" t="n">
@@ -28240,7 +28240,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1135" t="n">
@@ -28290,7 +28290,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1137" t="n">
@@ -28315,7 +28315,7 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1138" t="n">
@@ -28340,7 +28340,7 @@
       </c>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1139" t="n">
@@ -28377,12 +28377,12 @@
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>- Mr. Earle. - Happy Birthday, Bruce.</t>
+          <t>- Mr. EARLE. - Happy Birthday, Bruce.</t>
         </is>
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1141" t="n">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1144" t="n">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1146" t="n">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1147" t="n">
@@ -28557,7 +28557,7 @@
       </c>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1148" t="n">
@@ -28582,7 +28582,7 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1149" t="n">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1152" t="n">
@@ -28682,7 +28682,7 @@
       </c>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1153" t="n">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1155" t="n">
@@ -28807,7 +28807,7 @@
       </c>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1158" t="n">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1159" t="n">
@@ -28882,7 +28882,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1161" t="n">
@@ -28907,7 +28907,7 @@
       </c>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1162" t="n">
@@ -28957,7 +28957,7 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1164" t="n">
@@ -29007,7 +29007,7 @@
       </c>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1166" t="n">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1168" t="n">
@@ -29082,7 +29082,7 @@
       </c>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1169" t="n">
@@ -29107,7 +29107,7 @@
       </c>
       <c r="D1170" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1170" t="n">
@@ -29152,12 +29152,12 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t>Earle just fired me for asking too many questions about it.</t>
+          <t>EARLE just fired me for asking too many questions about it.</t>
         </is>
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1172" t="n">
@@ -29232,7 +29232,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1175" t="n">
@@ -29282,7 +29282,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1177" t="n">
@@ -29432,7 +29432,7 @@
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1183" t="n">
@@ -29457,7 +29457,7 @@
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1184" t="n">
@@ -29507,7 +29507,7 @@
       </c>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1186" t="n">
@@ -29582,7 +29582,7 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1189" t="n">
@@ -29657,7 +29657,7 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1192" t="n">
@@ -30149,7 +30149,7 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1212" t="n">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1213" t="n">
@@ -30199,7 +30199,7 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1214" t="n">
@@ -30249,7 +30249,7 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1216" t="n">
@@ -30274,7 +30274,7 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1217" t="n">
@@ -30324,7 +30324,7 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1219" t="n">
@@ -30374,7 +30374,7 @@
       </c>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1221" t="n">
@@ -30424,7 +30424,7 @@
       </c>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1223" t="n">
@@ -30474,7 +30474,7 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1225" t="n">
@@ -30499,7 +30499,7 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1226" t="n">
@@ -30524,7 +30524,7 @@
       </c>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1227" t="n">
@@ -30549,7 +30549,7 @@
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1228" t="n">
@@ -30574,7 +30574,7 @@
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1229" t="n">
@@ -30599,7 +30599,7 @@
       </c>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1230" t="n">
@@ -30624,7 +30624,7 @@
       </c>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1231" t="n">
@@ -30649,7 +30649,7 @@
       </c>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1232" t="n">
@@ -30724,7 +30724,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1235" t="n">
@@ -30749,7 +30749,7 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1236" t="n">
@@ -30774,7 +30774,7 @@
       </c>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1237" t="n">
@@ -30799,7 +30799,7 @@
       </c>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1238" t="n">
@@ -30824,7 +30824,7 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1239" t="n">
@@ -30849,7 +30849,7 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1240" t="n">
@@ -30874,7 +30874,7 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1241" t="n">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1244" t="n">
@@ -30974,7 +30974,7 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1245" t="n">
@@ -30999,7 +30999,7 @@
       </c>
       <c r="D1246" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1246" t="n">
@@ -31024,7 +31024,7 @@
       </c>
       <c r="D1247" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1247" t="n">
@@ -31074,7 +31074,7 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1249" t="n">
@@ -31099,7 +31099,7 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1250" t="n">
@@ -31124,7 +31124,7 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1251" t="n">
@@ -31149,7 +31149,7 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1252" t="n">
@@ -31174,7 +31174,7 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1253" t="n">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1254" t="n">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1255" t="n">
@@ -31249,7 +31249,7 @@
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1256" t="n">
@@ -31274,7 +31274,7 @@
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1257" t="n">
@@ -31299,7 +31299,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1258" t="n">
@@ -31324,7 +31324,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1259" t="n">
@@ -31349,7 +31349,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1260" t="n">
@@ -31374,7 +31374,7 @@
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1261" t="n">
@@ -31424,7 +31424,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1263" t="n">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1265" t="n">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1266" t="n">
@@ -31524,7 +31524,7 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1267" t="n">
@@ -31549,7 +31549,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1268" t="n">
@@ -31574,7 +31574,7 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1269" t="n">
@@ -31624,7 +31624,7 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1271" t="n">
@@ -31649,7 +31649,7 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>FLASS:</t>
+          <t>FLASS</t>
         </is>
       </c>
       <c r="E1272" t="n">
@@ -31699,7 +31699,7 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1274" t="n">
@@ -32066,7 +32066,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1289" t="n">
@@ -32191,7 +32191,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1294" t="n">
@@ -32341,7 +32341,7 @@
       </c>
       <c r="D1300" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1300" t="n">
@@ -32366,7 +32366,7 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1301" t="n">
@@ -32391,7 +32391,7 @@
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1302" t="n">
@@ -32416,7 +32416,7 @@
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1303" t="n">
@@ -32491,7 +32491,7 @@
       </c>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1306" t="n">
@@ -32516,7 +32516,7 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1307" t="n">
@@ -32583,7 +32583,7 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1310" t="n">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1312" t="n">
@@ -32658,7 +32658,7 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1313" t="n">
@@ -32683,7 +32683,7 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1314" t="n">
@@ -32708,7 +32708,7 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1315" t="n">
@@ -32817,7 +32817,7 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1320" t="n">
@@ -32934,7 +32934,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1325" t="n">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>GORDON:</t>
+          <t>GORDON</t>
         </is>
       </c>
       <c r="E1335" t="n">
@@ -33676,7 +33676,7 @@
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1355" t="n">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1361" t="n">
@@ -33876,7 +33876,7 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1363" t="n">
@@ -33901,7 +33901,7 @@
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1364" t="n">
@@ -34001,7 +34001,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1368" t="n">
@@ -34176,7 +34176,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1375" t="n">
@@ -34226,7 +34226,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1377" t="n">
@@ -34418,7 +34418,7 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1385" t="n">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1387" t="n">
@@ -34493,7 +34493,7 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1388" t="n">
@@ -34568,7 +34568,7 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E1391" t="n">
@@ -34593,7 +34593,7 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>DUCARD:</t>
+          <t>DUCARD</t>
         </is>
       </c>
       <c r="E1392" t="n">
@@ -34693,7 +34693,7 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1396" t="n">
@@ -34718,7 +34718,7 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1397" t="n">
@@ -34743,7 +34743,7 @@
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1398" t="n">
@@ -34768,7 +34768,7 @@
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1399" t="n">
@@ -34793,7 +34793,7 @@
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1400" t="n">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>ALFRED:</t>
+          <t>ALFRED</t>
         </is>
       </c>
       <c r="E1401" t="n">
@@ -34910,7 +34910,7 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1405" t="n">
@@ -34935,7 +34935,7 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>EARLE:</t>
+          <t>EARLE</t>
         </is>
       </c>
       <c r="E1406" t="n">
@@ -35110,7 +35110,7 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1413" t="n">
@@ -35135,7 +35135,7 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>FOX:</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E1414" t="n">
@@ -35235,7 +35235,7 @@
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>RACHEL:</t>
+          <t>RACHEL</t>
         </is>
       </c>
       <c r="E1418" t="n">
@@ -36010,7 +36010,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>BATMAN:</t>
+          <t>BATMAN</t>
         </is>
       </c>
       <c r="E1449" t="n">
